--- a/data/xlsx/win8.1.xlsx
+++ b/data/xlsx/win8.1.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="166">
+  <si>
+    <t>div_class</t>
+  </si>
+  <si>
+    <t>col-sm-12</t>
+  </si>
   <si>
     <t>header1</t>
   </si>
@@ -28,36 +34,38 @@
     <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
+    <t>templete</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2017 Win8.1</t>
   </si>
   <si>
-    <t>templete</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>&lt;h3&gt;Widows8.1編&lt;/h3&gt;</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows8.1編&lt;/h3&gt;
-2017年4月&lt;br&gt;
+    <t xml:space="preserve">2017年4月&lt;br&gt;
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
   </si>
   <si>
-    <t>col-sm-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
   </t>
   </si>
   <si>
-    <t>div_class</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
   </si>
   <si>
     <t>col-sm-4 col-md-6</t>
@@ -66,19 +74,13 @@
     <t>パソコンのスペック確認</t>
   </si>
   <si>
+    <t>img_class</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
     <t>FRESTA-TEXT-2017 Win8.1 chap.1</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
-  </si>
-  <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
   </si>
   <si>
     <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
@@ -90,39 +92,49 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> [1] まず、画面左下の「デスクトップ」をクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-1.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2]OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
+    <t xml:space="preserve">まず、画面左下の「デスクトップ」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
 &lt;p class="spl"&gt;※「右クリック」はマウスの右ボタンをクリックする操作ですが、タッチパッドの右下のあたりをタップしてもOKです。&lt;/p&gt;
- メニューが表示されるので、「システム」を探してクリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-2.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3] 「システム」という名前のウィンドウが開きます。
- 「Windowsのエディション」のところをみると「Windows 8.1 Enterprize」とありますね。これがOSバージョンです。 その下の「システムの種類」と書かれたところがOSのビット数になります。64ビットですね。二進法で64桁のデータを一度に処理できるOSであるということを示しています。 その上の「実装メモリ(RAM)」と書かれたところが、主記憶装置（メインメモリ）の容量です。4GB（ギガバイト）ですね。この容量が大きいほど、大量のデータを一括して扱えたり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-3.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4] 次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、大容量でPCの電源を切っても内容が消えません。
- まず画面下の帯の部分（タスクバー）のフォルダアイコンをクリックします。 表示されるウィンドウの左の「PC」をクリックしてください。 すると、左図のように 「ローカルディスク (C:) 」というラベルとともに、HDD/SSDの空き容量と全容量が表示されます。この場合は空き容量が67.7GBで，全容量100GB（ギガバイト）になります。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-4.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5] 最後にバッテリー駆動時間を確認しましょう。
- 画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。 100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-5.png" /&gt;  </t>
+ メニューが表示されるので、「システム」を探してクリックしてください。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「システム」という名前のウィンドウが開きます。
+ 「Windowsのエディション」のところをみると「Windows 8.1 Enterprize」とありますね。これがOSバージョンです。 その下の「システムの種類」と書かれたところがOSのビット数になります。64ビットですね。二進法で64桁のデータを一度に処理できるOSであるということを示しています。 その上の「実装メモリ(RAM)」と書かれたところが、主記憶装置（メインメモリ）の容量です。4GB（ギガバイト）ですね。この容量が大きいほど、大量のデータを一括して扱えたり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、大容量でPCの電源を切っても内容が消えません。
+ まず画面下の帯の部分（タスクバー）のフォルダアイコンをクリックします。 表示されるウィンドウの左の「PC」をクリックしてください。 すると、左図のように 「ローカルディスク (C:) 」というラベルとともに、HDD/SSDの空き容量と全容量が表示されます。この場合は空き容量が67.7GBで，全容量100GB（ギガバイト）になります。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+ 画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。 100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-5.png</t>
+  </si>
+  <si>
+    <t>Windowsを最新版にアップデートし、Microsoft Office などをインストールしましょう。</t>
   </si>
   <si>
     <t>必要なソフトウェアのインストール</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2017 Win8.1 chap.2</t>
-  </si>
-  <si>
-    <t>Windowsを最新版にアップデートし、Microsoft Office などをインストールしましょう。</t>
   </si>
   <si>
     <t xml:space="preserve">ソフトのインストールに必要なファイルを、USBメモリにいれて配布しますので、まずそれを各々のPCにコピーしてください。そのあと、インストールを開始します。ここでは、Microsoft OfficeとGoogle Chromeのインストールを行います。
@@ -130,73 +142,101 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> [1] 配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-0.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2] USBメモリを認識すると、FIRST LECというウィンドウが開きます。その中に入っている「Windows」というフォルダをデスクトップにドラッグしてコピーしましょう。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-1.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3] コピーが終わったらUSBメモリを取り外します。
- タスクバーの「△」をクリックして、USBメモリのアイコンを右クリックします。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-6.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4]「USB Flash Diskの取り出し」をクリックします。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-7.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5] 「ハードウエアの取り外し」メッセージが出たら，USBメモリを抜いても大丈夫です。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-8.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Office2016のインストール&lt;/h2&gt;
-Office2016の正規品が既に入っている場合には、ここは飛ばして&lt;a href="#chrome"&gt;[10]へ進んでください&lt;/a&gt;
+    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。PCがUSBメモリを正常に認識すると、ぽんぽこりんという音がします。 
+  </t>
+  </si>
+  <si>
+    <t>win10-2-0.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USBメモリを認識すると、FIRST LECというウィンドウが開きます。その中に入っている「Windows」というフォルダをデスクトップにドラッグしてコピーしましょう。 
+  </t>
+  </si>
+  <si>
+    <t>win10-2-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コピーが終わったらUSBメモリを取り外します。
+ タスクバーの「△」をクリックして、USBメモリのアイコンを右クリックします。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「USB Flash Diskの取り出し」をクリックします。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ハードウエアの取り外し」メッセージが出たら，USBメモリを抜いても大丈夫です。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-8.png</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Office2016のインストール&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office2016の正規品が既に入っている場合には、ここは飛ばして&lt;a href="#chrome"&gt;[10]へ進んでください&lt;/a&gt;
 。Offce2013が入っている場合には、それはそのままにしてOffice2016を追加インストールすることができます。
- [6]先ほど，コピーしたフォルダをWクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-3.png" /&gt;  </t>
+先ほど，コピーしたフォルダをWクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win10-2-3.png</t>
   </si>
   <si>
     <t xml:space="preserve"> 中に入っている「1 初期講習インストール」をダブルクリック。Officeのインストールが始まります。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-4.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7] 黒いウィンドウが表示され、その中でソフトのインストール処理が進みます。
- 15分位かかりますので、そのまま待ってください。 「インストールが完了しました」と出たら、終了です。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-2-5.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [8] インストールが終了したら、システム再起動します。
- 画面左下のウィンドウアイコンを右クリックして、「シャットダウンまたはサインアウト」の右矢印から「再起動」を選択，クリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-9.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="chrome"&gt;Google Chrome のインストール&lt;/a&gt;
-&lt;/h2&gt;
- [10] 次にGoogle Chromeをインストールします。「2 右クリック→管理者として実行」と書かれたアイコンを右クリックしてください。メニューが出るので、その中にある「管理者として実行」を選びます。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-8.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [11] すると、Chromeのインストールが始まります。今度は数十秒で終わります。
- Windows8.1にはInternet ExploereというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。 以上でソフトウェアのインストールは終了です。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-9.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-2-4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒いウィンドウが表示され、その中でソフトのインストール処理が進みます。
+ 15分位かかりますので、そのまま待ってください。 「インストールが完了しました」と出たら、終了です。   </t>
+  </si>
+  <si>
+    <t>chartn</t>
+  </si>
+  <si>
+    <t>win10-2-5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インストールが終了したら、システム再起動します。
+ 画面左下のウィンドウアイコンを右クリックして、「シャットダウンまたはサインアウト」の右矢印から「再起動」を選択，クリックしてください。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-9.png</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="chrome"&gt;Google Chrome のインストール&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次にGoogle Chromeをインストールします。「2 右クリック→管理者として実行」と書かれたアイコンを右クリックしてください。メニューが出るので、その中にある「管理者として実行」を選びます。 
+  </t>
+  </si>
+  <si>
+    <t>win10-2-8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すると、Chromeのインストールが始まります。今度は数十秒で終わります。
+ Windows8.1にはInternet ExploereというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページがときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。 以上でソフトウェアのインストールは終了です。   </t>
+  </si>
+  <si>
+    <t>win10-2-9.png</t>
+  </si>
+  <si>
+    <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
     <t>学内ネットワークへの接続</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2017 Win8.1 chap.3</t>
-  </si>
-  <si>
-    <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
     <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにしましょう。一度設定すると、次回からは（同じエリアでは）設定不要です。
@@ -207,131 +247,171 @@
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
 アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、5節で紹介します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-5-16.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1]ご自分のPCで学内Wi-Fiに接続する設定をおこないます。 画面右下のWi-Fiアイコン　　をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-1.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-2.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3]「接続」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ご自分のPCで学内Wi-Fiに接続する設定をおこないます。 画面右下のWi-Fiアイコン　　をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-4-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fiの一覧が出ますので，「HU-CUPXX」(XXは数字) を選択します。数字の部分はエリアで異なります。 総合科学部付近では「HU-CUP30」に接続できます。霞は「HU-CUP40」、東千田は「HU-CUP50」です。 
+  </t>
+  </si>
+  <si>
+    <t>win10-4-2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「接続」をクリックしてください。
 このときに「自動的に接続」にチェックを入れておくと，次回から同じWi-Fiには自動的に接続され，手間が省けます。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-3.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] 「ユーザ名」のところにアカウント名を入力します。
+  </t>
+  </si>
+  <si>
+    <t>win10-4-3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ユーザ名」のところにアカウント名を入力します。
 &lt;p class="spl"&gt;※ アカウント名は学生番号の最初のアルファベットが小文字のものになります&lt;/p&gt;
 「パスワード」には広大パスワードを記入します。
 &lt;p class="spl"&gt;※ 大文字を入力するときは、SHIFTキーを押しながら文字キーを押します。&lt;/p&gt;
 両方を入力したら「OK」をクリックしてください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-4.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] この画面になったら「接続」をクリックしてください。
+   </t>
+  </si>
+  <si>
+    <t>win10-4-4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
 これで接続の設定が完了しました。
 接続が完了すると「接続済み」と表示されます。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-5.png" /&gt;  </t>
+   </t>
+  </si>
+  <si>
+    <t>win10-4-5.png</t>
   </si>
   <si>
     <t xml:space="preserve">手順 [3] で選んだ HU-CUPXX ですが、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/4.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
   </si>
   <si>
     <t>自動アップデートとソフトウェアのセットアップ</t>
-  </si>
-  <si>
-    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Update を使って、Windows と Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持で きるようにしておきます。
  また、Officeのアクティベートもしておきましょう。 </t>
   </si>
   <si>
-    <t xml:space="preserve"> [1]まず、画面右下のWindowsアイコンを右クリックし，メニューの中から「コントロールパネル」を選んでクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-11.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2] 「Windows Update」をクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-12.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3] 「設定の変更」をクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-13.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4] 更新が「自動」になっていることを確認しましょう。
- 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-14.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5] 自動アップデートのタイミング以外に、「Windows Defender」を更新する方法について説明します。
- 手順[4]で設定した自動アップデートによって、「Windows Defender」は最新状態に保たれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新したほうが良いときもあります。 Windowアイコンをクリックしてください。画面右上の虫眼鏡アイコンをクリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-10.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [6]検索窓に「Defender」と入力すると，すぐ下に「Windows Defender」が表示されますので，クリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-15.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7]すると、図のように Defenderの画面が開きます。
- 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-8.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [8] 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。
- Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではExcel 2016を起動します。 左下のWindowsマークをクリックし、表示されるメニューから「Excel2016」を探してクリックしましょう。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win8.1-1-16.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [9] 「プロダクトキーを入力してください」というパネルが出ます。市販のOfficeの場合は製品一つ一つについた番号を入れますが、今の場合は利用している人が広島大学の構成員であることを示せば良いことになっています。
- 「別のアクティブなアカウントを使ってサインインする」をクリックしてください。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-10.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [10] 「Officeラインセンス認証」として、電子メールアドレスを入れるように促されます。「学生番号＠hiroshima-u.ac.jp」と記入してください。
+    <t xml:space="preserve">まず、画面右下のWindowsアイコンを右クリックし，メニューの中から「コントロールパネル」を選んでクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Windows Update」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「設定の変更」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新が「自動」になっていることを確認しましょう。
+ 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動アップデートのタイミング以外に、「Windows Defender」を更新する方法について説明します。
+ 手順[4]で設定した自動アップデートによって、「Windows Defender」は最新状態に保たれます。しかし、緊急の脆弱性が発表された場合など、すぐに更新したほうが良いときもあります。 Windowアイコンをクリックしてください。画面右上の虫眼鏡アイコンをクリックしてください。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検索窓に「Defender」と入力すると，すぐ下に「Windows Defender」が表示されますので，クリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win8.1-1-15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すると、図のように Defenderの画面が開きます。
+ 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。   </t>
+  </si>
+  <si>
+    <t>win10-5-8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。
+ Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではExcel 2016を起動します。 左下のWindowsマークをクリックし、表示されるメニューから「Excel2016」を探してクリックしましょう。   </t>
+  </si>
+  <si>
+    <t>win8.1-1-16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「プロダクトキーを入力してください」というパネルが出ます。市販のOfficeの場合は製品一つ一つについた番号を入れますが、今の場合は利用している人が広島大学の構成員であることを示せば良いことになっています。
+ 「別のアクティブなアカウントを使ってサインインする」をクリックしてください。   </t>
+  </si>
+  <si>
+    <t>win10-5-10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Officeラインセンス認証」として、電子メールアドレスを入れるように促されます。「学生番号＠hiroshima-u.ac.jp」と記入してください。
 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-11.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [11] HIROSHIMA UNIVERSITY と書かれたパネルが出ます。先程入力したメールアドレスが出ていることを確認し、パスワードのところに「広大パスワード」を入力してください。入力できたら「サインイン」をクリックします。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-13.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [12] 正しくサインインできると「アカウントが更新されました」となります。「OK」をクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-14.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [13] 「同意する」をクリックすると、Officeが利用できる状態になります。
+  </t>
+  </si>
+  <si>
+    <t>win10-5-11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIROSHIMA UNIVERSITY と書かれたパネルが出ます。先程入力したメールアドレスが出ていることを確認し、パスワードのところに「広大パスワード」を入力してください。入力できたら「サインイン」をクリックします。 
+  </t>
+  </si>
+  <si>
+    <t>win10-5-13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正しくサインインできると「アカウントが更新されました」となります。「OK」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win10-5-14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「同意する」をクリックすると、Officeが利用できる状態になります。
 &lt;p class="spl"&gt;※ この「同意する」は、ソフトウェアの使用許諾契約に同意することを意味します。&lt;/p&gt;
- 以上の操作をすると、PowerPointやWordなどMicrosoft Officeの他のアプリケーションも使えるようになります。  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-15.png" /&gt;  </t>
+ 以上の操作をすると、PowerPointやWordなどMicrosoft Officeの他のアプリケーションも使えるようになります。   </t>
+  </si>
+  <si>
+    <t>win10-5-15.png</t>
+  </si>
+  <si>
+    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
   </si>
   <si>
     <t>大学のオンラインサービスへのログイン</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2017 Win8.1 chap.5</t>
-  </si>
-  <si>
-    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
@@ -341,156 +421,202 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;もみじ&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1]広島大学では履修登録、成績確認、各種通知はもみじを利用しています。
+    <t xml:space="preserve">&lt;h2&gt;もみじ&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知はもみじを利用しています。
 まず、検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-1.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2]するともみじの画面が開きますね。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するともみじの画面が開きますね。
 ここでは大学生活における様々な情報を確認することができます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-2.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3]では「MYもみじ」へログインしてみましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">では「MYもみじ」へログインしてみましょう。
 広大ID（学生番号）、広大パスワードを入力し、「Myもみじへログイン」をクリックしてください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-3.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4]するとこのような画面になります。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。
 履修登録をしたり、成績を確認することができます。
 また「掲示」では、授業や学部からの連絡が表示されます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-4.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5]閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-5.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6]もみじのTOP画面にもどりましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">もみじのTOP画面にもどりましょう。
 [7]右側にバナーが並んでいます。
 この中の「Webメール」と「Bb9」について説明します。
 まず「Webメール」のバナーをクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-6.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8]すると、メディアセンターのメールのページが開きます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すると、メディアセンターのメールのページが開きます。
 画像をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-7.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] Office365にサインインする画面になります。広大メールと広大パスワードを入力し「サインイン」をクリックします。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-7b.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] 最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart flame" src="image/win10-6-7d.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11]メールの画面が開きます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365にサインインする画面になります。広大メールと広大パスワードを入力し「サインイン」をクリックします。 
+  </t>
+  </si>
+  <si>
+    <t>win10-6-7b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
+  </t>
+  </si>
+  <si>
+    <t>chart flame</t>
+  </si>
+  <si>
+    <t>win10-6-7d.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
 大学からのさまざまな連絡は、広大メールで来ます。
 常にメールチェックするようにしてください。
 スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-8.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12]次に画面左上の「Office365」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-9.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13]するとOffice365で使用できるアプリケーション一覧が表示されます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に画面左上の「Office365」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとOffice365で使用できるアプリケーション一覧が表示されます。
 その中にある「OneDrive」をクリックしましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-10.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14]ここにはひとりあたり１TBまで、データを置いておくことができます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
 データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
 sOneDriveにもアプリがありますので、スマホでも活用できます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-11.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;学習支援システム Bb9&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15]ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;学習支援システム Bb9&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業での資料がUPされたり、ここでテストを受けたり、課題を提出したりすることがあります。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-12.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16]右側にかわいいイラストのバナーがありますね。これをクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-13.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17]するとログイン画面が開きます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとログイン画面が開きます。
 「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
 入力したら「ログイン」をクリックします。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-14.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[18]一番最初にログインしたときだけ、この画面が開きます。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
 「閉じる」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-15.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[19]２回目からはログインしたら、この画面が出ます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">２回目からはログインしたら、この画面が出ます。
 真ん中の「コース一覧」に受講できるコースが一覧で表示されます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-16.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[20]コース一覧の中にある「情報セキュリティ・コンプライアンス/Information Security &amp;amp; Compliance 2017」は、全員が必ず受講しなければいけません。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コース一覧の中にある「情報セキュリティ・コンプライアンス/Information Security &amp;amp; Compliance 2017」は、全員が必ず受講しなければいけません。
 ６月末までに受講して、確認テストを合格して「アカウント利用確認」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。
 必ずおこなってください。
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-17.png" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;おまけ&lt;/h2&gt;
-以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-17.png</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;おまけ&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
   </si>
   <si>
     <t xml:space="preserve">まず、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
 OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-20.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-20.png</t>
   </si>
   <si>
     <t xml:space="preserve">次にプリンタについて。メディアセンターのPC部屋にはモノクロプリンタが置いてあります。また、メディアセンター本館、西分室（西図書館内）、北分室（中央図書館内）、霞分室（医学部基礎実習棟１F）には、カラープリンタが置いてあります。これらのプリンタに、HiNETに繋いだ必携PCから印刷することが可能です。
 印刷は有料です。学生証にチャージした電子マネーで支払います。印刷費や、必携PCから印刷するための方法については、メディアセンターのホームページを参照してください。 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-22.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-22.png</t>
   </si>
   <si>
     <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-21.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-21.png</t>
   </si>
   <si>
     <t>おわりに</t>
@@ -502,15 +628,18 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;問い合わせ&lt;/h3&gt;
-必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
+    <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
 &lt;ul&gt;&lt;li&gt;対面窓口：西図書館2Fカウンター&lt;/li&gt;
 &lt;li&gt;Web質問窓口: &lt;br&gt;
 &lt;a href="http://www.media.hiroshima-u.ac.jp/helpdesk"&gt;http://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
  &lt;/li&gt;
- &lt;/ul&gt;
-&lt;h3&gt;F3S講習会&lt;/h3&gt;
-情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
+ &lt;/ul&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
 学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
 &lt;ul&gt;&lt;li&gt;&lt;a href="http://f3s.riise.hiroshima-u.ac.jp"&gt;http://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
  &lt;/li&gt;
@@ -850,19 +979,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -870,7 +1000,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -878,39 +1008,52 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -926,133 +1069,134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1062,223 +1206,234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1294,161 +1449,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1464,245 +1620,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1712,433 +1869,454 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
+      <c r="A24" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
+      <c r="A26" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
+      <c r="A27" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
+      <c r="A29" t="s">
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
+      <c r="A30" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
+      <c r="A31" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
+      <c r="A32" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2148,75 +2326,86 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win8.1.xlsx
+++ b/data/xlsx/win8.1.xlsx
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="166">
-  <si>
-    <t>div_class</t>
-  </si>
-  <si>
-    <t>col-sm-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="161">
   <si>
     <t>header1</t>
   </si>
@@ -46,13 +40,11 @@
     <t>FRESTA-TEXT-2017 Win8.1</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Widows8.1編&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">2017年4月&lt;br&gt;
+    <t xml:space="preserve">&lt;h3&gt;Widows8.1編&lt;/h3&gt;
+2017年4月&lt;br&gt;
  広島大学 情報メディア教育研究センター&lt;br&gt;
  広島大学 消費生活協同組合 
  </t>
@@ -68,16 +60,10 @@
     <t xml:space="preserve">自分のパソコンの基本的なスペックを確認しておきましょう。CPUの型式、OSのビット数、記憶容量など。 </t>
   </si>
   <si>
-    <t>col-sm-4 col-md-6</t>
-  </si>
-  <si>
     <t>パソコンのスペック確認</t>
   </si>
   <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
+    <t>fresta</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2017 Win8.1 chap.1</t>
@@ -979,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,45 +1001,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1077,10 +1050,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1088,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1096,107 +1069,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1220,10 +1185,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1231,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1239,201 +1204,193 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1457,10 +1414,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1468,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1476,135 +1433,127 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1628,10 +1577,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1639,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1647,219 +1596,211 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1883,10 +1824,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1894,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1902,421 +1843,413 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>139</v>
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="1" t="s">
-        <v>152</v>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2343,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2351,61 +2284,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win8.1.xlsx
+++ b/data/xlsx/win8.1.xlsx
@@ -28,7 +28,7 @@
     <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
-    <t>templete</t>
+    <t>template</t>
   </si>
   <si>
     <t>index</t>
